--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/tristan2025-website/content/people/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAFAEEB-DA5F-6446-8477-B775F89F9E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348CB162-993C-4244-A9C8-727D92D1AD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -1075,6 +1075,26 @@
   </si>
   <si>
     <t>Université Sorbonne Paris Nord</t>
+  </si>
+  <si>
+    <t>Yuichi Mohri</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>The Institute of Behavioral Sciences</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Takashi Ishida</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Highway Planning Inc.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Yasuhiro Nonaka</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1558,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A162" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3825,6 +3845,39 @@
       </c>
       <c r="C174" s="12" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>337</v>
+      </c>
+      <c r="B176" t="s">
+        <v>338</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" t="s">
+        <v>338</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348CB162-993C-4244-A9C8-727D92D1AD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F582D-EC2E-394A-B5D5-5851BF3D1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="342">
   <si>
     <t>Name</t>
   </si>
@@ -1094,6 +1094,14 @@
   </si>
   <si>
     <t>Yasuhiro Nonaka</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Université Gustave Eiffel</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Latifa Oukhellou</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1578,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A162" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3878,6 +3886,17 @@
       </c>
       <c r="C177" s="11" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>341</v>
+      </c>
+      <c r="B178" t="s">
+        <v>340</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F582D-EC2E-394A-B5D5-5851BF3D1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5934CDD0-F34C-8B40-9BEC-C6680316D030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$132</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Gunnar Flotterod</t>
   </si>
   <si>
-    <t>Lukas Veelenturf</t>
-  </si>
-  <si>
     <t>Vera Hemmelmayr</t>
   </si>
   <si>
@@ -1063,10 +1060,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>Rotterdam School of Managament</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>Roberto Wolfler</t>
   </si>
   <si>
@@ -1097,11 +1090,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>Université Gustave Eiffel</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Latifa Oukhellou</t>
+    <t>Rotterdam School of Managament, Erasmus University</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1586,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177:XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1604,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1615,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1628,10 +1617,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1641,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1654,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1667,10 +1656,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
         <v>195</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1680,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1693,10 +1682,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1706,10 +1695,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1719,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1732,10 +1721,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1745,10 +1734,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1758,10 +1747,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1771,10 +1760,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1784,10 +1773,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1797,10 +1786,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1810,10 +1799,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1823,10 +1812,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1836,10 +1825,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1849,10 +1838,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1862,10 +1851,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1875,10 +1864,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -1888,10 +1877,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1901,10 +1890,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -1914,10 +1903,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1927,10 +1916,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -1940,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1953,10 +1942,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -1966,10 +1955,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1979,10 +1968,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -1992,10 +1981,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -2005,10 +1994,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2018,10 +2007,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2031,10 +2020,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2044,10 +2033,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2057,10 +2046,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2070,10 +2059,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2083,10 +2072,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -2096,10 +2085,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -2109,10 +2098,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -2122,10 +2111,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -2135,10 +2124,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -2148,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -2161,10 +2150,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -2174,10 +2163,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -2187,10 +2176,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -2200,10 +2189,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -2213,10 +2202,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2226,10 +2215,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -2239,10 +2228,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2252,10 +2241,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -2265,10 +2254,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2278,10 +2267,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2291,10 +2280,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2304,10 +2293,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -2320,7 +2309,7 @@
         <v>249</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -2330,10 +2319,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -2343,10 +2332,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -2356,10 +2345,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -2372,7 +2361,7 @@
         <v>253</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -2382,10 +2371,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -2395,10 +2384,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -2411,7 +2400,7 @@
         <v>256</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -2421,10 +2410,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -2434,10 +2423,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -2447,10 +2436,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -2460,10 +2449,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -2473,10 +2462,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -2486,10 +2475,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -2502,7 +2491,7 @@
         <v>259</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -2515,7 +2504,7 @@
         <v>260</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -2525,10 +2514,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -2538,10 +2527,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -2551,10 +2540,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -2564,10 +2553,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -2577,10 +2566,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -2590,10 +2579,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -2606,7 +2595,7 @@
         <v>274</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -2619,7 +2608,7 @@
         <v>275</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -2632,7 +2621,7 @@
         <v>276</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -2645,7 +2634,7 @@
         <v>277</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -2655,10 +2644,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
@@ -2671,7 +2660,7 @@
         <v>280</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -2684,7 +2673,7 @@
         <v>281</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
@@ -2697,7 +2686,7 @@
         <v>282</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -2710,7 +2699,7 @@
         <v>283</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -2720,10 +2709,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -2733,10 +2722,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -2746,10 +2735,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -2759,10 +2748,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -2775,7 +2764,7 @@
         <v>286</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -2788,7 +2777,7 @@
         <v>287</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -2801,7 +2790,7 @@
         <v>288</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -2814,7 +2803,7 @@
         <v>289</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -2827,7 +2816,7 @@
         <v>290</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -2837,10 +2826,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
@@ -2850,10 +2839,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
@@ -2863,10 +2852,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
@@ -2876,10 +2865,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
@@ -2889,10 +2878,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
@@ -2905,7 +2894,7 @@
         <v>294</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
@@ -2915,10 +2904,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
@@ -2928,10 +2917,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -2941,10 +2930,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
@@ -2954,10 +2943,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -2970,7 +2959,7 @@
         <v>297</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -2980,10 +2969,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -2993,10 +2982,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -3006,10 +2995,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -3019,10 +3008,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -3032,10 +3021,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -3045,10 +3034,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -3058,10 +3047,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
@@ -3074,7 +3063,7 @@
         <v>301</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
@@ -3087,7 +3076,7 @@
         <v>302</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -3097,10 +3086,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -3110,10 +3099,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
@@ -3123,10 +3112,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
@@ -3139,7 +3128,7 @@
         <v>304</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
@@ -3149,10 +3138,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -3162,10 +3151,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
@@ -3175,10 +3164,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
@@ -3188,10 +3177,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
@@ -3201,10 +3190,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -3214,10 +3203,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
@@ -3230,7 +3219,7 @@
         <v>306</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
@@ -3240,10 +3229,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -3252,11 +3241,11 @@
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>232</v>
+      <c r="B128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" t="s">
+        <v>191</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -3265,11 +3254,11 @@
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" t="s">
-        <v>192</v>
+      <c r="B129" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
@@ -3278,11 +3267,11 @@
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>191</v>
+      <c r="B130" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -3291,11 +3280,11 @@
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>255</v>
+      <c r="B131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" t="s">
+        <v>191</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
@@ -3305,36 +3294,36 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>204</v>
-      </c>
-      <c r="C133" t="s">
-        <v>192</v>
+      <c r="B133" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>188</v>
+      <c r="B134" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" t="s">
+        <v>191</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
@@ -3344,10 +3333,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -3357,10 +3346,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>325</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
@@ -3370,10 +3359,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
@@ -3386,7 +3375,7 @@
         <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
@@ -3396,10 +3385,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
@@ -3409,10 +3398,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="C140" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -3422,10 +3411,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="C141" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -3435,10 +3424,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
@@ -3448,10 +3437,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="C143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
@@ -3461,10 +3450,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="C144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
@@ -3474,10 +3463,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="C145" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
@@ -3490,7 +3479,7 @@
         <v>327</v>
       </c>
       <c r="C146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
@@ -3503,7 +3492,7 @@
         <v>328</v>
       </c>
       <c r="C147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
@@ -3512,11 +3501,11 @@
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>329</v>
-      </c>
-      <c r="C148" t="s">
-        <v>192</v>
+      <c r="B148" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
@@ -3526,10 +3515,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
@@ -3539,10 +3528,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
@@ -3552,10 +3541,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
@@ -3564,35 +3553,35 @@
       <c r="A152" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="B152" t="s">
+        <v>269</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>270</v>
-      </c>
-      <c r="C153" t="s">
-        <v>271</v>
-      </c>
+      <c r="B153" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
@@ -3602,10 +3591,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
@@ -3615,36 +3604,36 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
@@ -3654,10 +3643,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
@@ -3667,10 +3656,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
@@ -3683,7 +3672,7 @@
         <v>318</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
@@ -3693,10 +3682,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
@@ -3706,10 +3695,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -3719,10 +3708,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
@@ -3732,10 +3721,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
@@ -3745,10 +3734,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
@@ -3758,10 +3747,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
@@ -3771,10 +3760,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
@@ -3784,75 +3773,73 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>228</v>
+      <c r="B170" t="s">
+        <v>202</v>
+      </c>
+      <c r="C170" t="s">
+        <v>191</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>203</v>
-      </c>
-      <c r="C171" t="s">
-        <v>192</v>
+      <c r="A171" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="10" t="s">
+      <c r="A172" t="s">
         <v>183</v>
       </c>
-      <c r="B172" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>232</v>
+      <c r="B172" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>184</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
+        <v>330</v>
+      </c>
+      <c r="B173" t="s">
+        <v>332</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B174" t="s">
         <v>334</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>333</v>
+      <c r="C174" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3863,7 +3850,7 @@
         <v>336</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3871,36 +3858,14 @@
         <v>337</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>339</v>
-      </c>
-      <c r="B177" t="s">
-        <v>338</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>341</v>
-      </c>
-      <c r="B178" t="s">
-        <v>340</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A133" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A132" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3923,26 +3888,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="C3" s="9">
         <v>102</v>
@@ -3950,10 +3915,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="C4" s="9">
         <v>132</v>
@@ -3961,10 +3926,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="C5" s="9">
         <v>8</v>
@@ -3972,10 +3937,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5934CDD0-F34C-8B40-9BEC-C6680316D030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C25B4-77EA-774B-A75F-F5DFDDFFC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1091,6 +1091,14 @@
   </si>
   <si>
     <t>Rotterdam School of Managament, Erasmus University</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Mutsunori Yagiura</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Nur Diana Safitri</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1575,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177:XFD177"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3861,6 +3869,28 @@
         <v>336</v>
       </c>
       <c r="C176" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" t="s">
+        <v>213</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>340</v>
+      </c>
+      <c r="B178" t="s">
+        <v>202</v>
+      </c>
+      <c r="C178" s="11" t="s">
         <v>191</v>
       </c>
     </row>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C25B4-77EA-774B-A75F-F5DFDDFFC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EAB725-1BC0-1243-8B6C-83617F6C8528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="344">
   <si>
     <t>Name</t>
   </si>
@@ -1099,6 +1099,17 @@
   </si>
   <si>
     <t>Nur Diana Safitri</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Ankit R. Patel</t>
+  </si>
+  <si>
+    <t>University of Minho</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Portugal</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1583,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A165" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3892,6 +3903,17 @@
       </c>
       <c r="C178" s="11" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>341</v>
+      </c>
+      <c r="B179" t="s">
+        <v>342</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EAB725-1BC0-1243-8B6C-83617F6C8528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C226FC5-62CC-5141-AF6F-0FFEFC8061FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -1110,6 +1110,18 @@
   </si>
   <si>
     <t>Portugal</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Cristián E. Cortés</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Universidad de Chile</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Chile</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1594,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A165" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3914,6 +3926,17 @@
       </c>
       <c r="C179" s="11" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>344</v>
+      </c>
+      <c r="B180" t="s">
+        <v>345</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C226FC5-62CC-5141-AF6F-0FFEFC8061FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AB0FC-F19D-CA49-9F02-681367FBF938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="349">
   <si>
     <t>Name</t>
   </si>
@@ -1122,6 +1122,13 @@
   </si>
   <si>
     <t>Chile</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Kenan Zhang</t>
+  </si>
+  <si>
+    <t>Rui Yao</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1606,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3937,6 +3944,28 @@
       </c>
       <c r="C180" s="11" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>348</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AB0FC-F19D-CA49-9F02-681367FBF938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127A649-F870-7E42-A5CD-48C76AAF08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,9 +953,6 @@
     <t>University of Liverpool</t>
   </si>
   <si>
-    <t>Heudiasyc</t>
-  </si>
-  <si>
     <t>University of Hamburg</t>
   </si>
   <si>
@@ -1129,6 +1126,10 @@
   </si>
   <si>
     <t>Rui Yao</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>IMT Atlantique</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1615,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1798,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
         <v>191</v>
@@ -2994,7 +2995,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>227</v>
@@ -3020,7 +3021,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>237</v>
@@ -3059,7 +3060,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>225</v>
@@ -3085,7 +3086,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>227</v>
@@ -3098,7 +3099,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>225</v>
@@ -3111,7 +3112,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>227</v>
@@ -3124,7 +3125,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>225</v>
@@ -3150,7 +3151,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>225</v>
@@ -3163,7 +3164,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>250</v>
@@ -3241,7 +3242,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>241</v>
@@ -3254,7 +3255,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>227</v>
@@ -3306,7 +3307,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>254</v>
@@ -3345,7 +3346,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>187</v>
@@ -3371,7 +3372,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C135" t="s">
         <v>191</v>
@@ -3436,10 +3437,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" t="s">
         <v>313</v>
-      </c>
-      <c r="C140" t="s">
-        <v>314</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -3475,7 +3476,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C143" t="s">
         <v>191</v>
@@ -3501,7 +3502,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C145" t="s">
         <v>191</v>
@@ -3514,7 +3515,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C146" t="s">
         <v>191</v>
@@ -3527,7 +3528,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C147" t="s">
         <v>191</v>
@@ -3540,7 +3541,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>227</v>
@@ -3566,10 +3567,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
@@ -3579,7 +3580,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>247</v>
@@ -3629,7 +3630,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>254</v>
@@ -3655,7 +3656,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>225</v>
@@ -3694,7 +3695,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>250</v>
@@ -3707,10 +3708,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
@@ -3720,7 +3721,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>237</v>
@@ -3772,7 +3773,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>225</v>
@@ -3785,7 +3786,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>229</v>
@@ -3798,10 +3799,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C168" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>323</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
@@ -3860,21 +3861,21 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" t="s">
+        <v>331</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="B173" t="s">
-        <v>332</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
+        <v>332</v>
+      </c>
+      <c r="B174" t="s">
         <v>333</v>
-      </c>
-      <c r="B174" t="s">
-        <v>334</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>191</v>
@@ -3882,10 +3883,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
+        <v>334</v>
+      </c>
+      <c r="B175" t="s">
         <v>335</v>
-      </c>
-      <c r="B175" t="s">
-        <v>336</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>191</v>
@@ -3893,10 +3894,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>191</v>
@@ -3904,7 +3905,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B177" t="s">
         <v>213</v>
@@ -3915,7 +3916,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B178" t="s">
         <v>202</v>
@@ -3926,29 +3927,29 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>340</v>
+      </c>
+      <c r="B179" t="s">
         <v>341</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>343</v>
+      </c>
+      <c r="B180" t="s">
         <v>344</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B181" s="12" t="s">
         <v>230</v>
@@ -3959,7 +3960,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>230</v>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127A649-F870-7E42-A5CD-48C76AAF08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F06A2-0BF4-CB4B-B529-5B570E3FD1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="350">
   <si>
     <t>Name</t>
   </si>
@@ -1130,6 +1130,10 @@
   </si>
   <si>
     <t>IMT Atlantique</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Rotterdam School of Management</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1616,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3760,7 +3764,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>229</v>

--- a/content/people/SCmemberList.xlsx
+++ b/content/people/SCmemberList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/people/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F06A2-0BF4-CB4B-B529-5B570E3FD1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCA3975-4853-5D48-AB1D-A93E38FD6BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$132</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="403">
   <si>
     <t>Name</t>
   </si>
@@ -1135,6 +1135,165 @@
   <si>
     <t>Rotterdam School of Management</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Lei Zhao</t>
+  </si>
+  <si>
+    <t>Angelica Del Rocio Lozano Cuevas</t>
+  </si>
+  <si>
+    <t>Stefan Minner</t>
+  </si>
+  <si>
+    <t>Mihaela Popa</t>
+  </si>
+  <si>
+    <t>Ruibin Bai</t>
+  </si>
+  <si>
+    <t>Richard Wong</t>
+  </si>
+  <si>
+    <t>Nadia Lahrichi</t>
+  </si>
+  <si>
+    <t>Kjetil Fagerholt</t>
+  </si>
+  <si>
+    <t>Norwegian University of Science and Technology</t>
+  </si>
+  <si>
+    <t>Jorge Mendoza Gimenez</t>
+  </si>
+  <si>
+    <t>Fausto Errico</t>
+  </si>
+  <si>
+    <t>CIRRELT and École de technologie supérieure de Montréal</t>
+  </si>
+  <si>
+    <t>Guido Perboli</t>
+  </si>
+  <si>
+    <t>Politecnico di Torino, Italy and CIRRELT, Canada</t>
+  </si>
+  <si>
+    <t>Federico Malucelli</t>
+  </si>
+  <si>
+    <t>Politecnico di Milano</t>
+  </si>
+  <si>
+    <t>Massimo Di Francesco</t>
+  </si>
+  <si>
+    <t>Manuel Iori</t>
+  </si>
+  <si>
+    <t>University of Modena and Reggio Emilia</t>
+  </si>
+  <si>
+    <t>Antonio Frangioni</t>
+  </si>
+  <si>
+    <t>Maria Elena Bruni</t>
+  </si>
+  <si>
+    <t>University of Calabria</t>
+  </si>
+  <si>
+    <t>Tsinghua University</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Nacional Autónoma de México	</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Panagiotis Repoussis</t>
+  </si>
+  <si>
+    <t>Athens University of Economics and Business</t>
+  </si>
+  <si>
+    <t>Alexandre Jacquillat</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>Anne Goodchild</t>
+  </si>
+  <si>
+    <t>Ann Melissa Campbell</t>
+  </si>
+  <si>
+    <t>University of Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical University of Munich	</t>
+  </si>
+  <si>
+    <t>University Politehnica of Bucharest</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>University of Nottingham Ningbo</t>
+  </si>
+  <si>
+    <t>Anant Balakrishnan</t>
+  </si>
+  <si>
+    <t>University of Texas</t>
+  </si>
+  <si>
+    <t>Antonio Mauttone</t>
+  </si>
+  <si>
+    <t>Universidad de la República</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Claudio Sterle</t>
+  </si>
+  <si>
+    <t>University of Naples</t>
+  </si>
+  <si>
+    <t>Margaretha Gansterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Vienna	</t>
+  </si>
+  <si>
+    <t>Karl F. Doerner</t>
+  </si>
+  <si>
+    <t>Leandro Callegari Coelho</t>
+  </si>
+  <si>
+    <t>Polytechnique Montréal</t>
+  </si>
+  <si>
+    <t>Università di Cagliari</t>
+  </si>
+  <si>
+    <t>Università di Pisa</t>
+  </si>
+  <si>
+    <t>Gianfranco Guastaroba</t>
+  </si>
+  <si>
+    <t>Bilge Atasoy</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="125" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -3971,6 +4130,305 @@
       </c>
       <c r="C182" s="12" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>350</v>
+      </c>
+      <c r="B183" t="s">
+        <v>372</v>
+      </c>
+      <c r="C183" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>351</v>
+      </c>
+      <c r="B184" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>376</v>
+      </c>
+      <c r="B185" t="s">
+        <v>377</v>
+      </c>
+      <c r="C185" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>378</v>
+      </c>
+      <c r="B186" t="s">
+        <v>379</v>
+      </c>
+      <c r="C186" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>380</v>
+      </c>
+      <c r="B187" t="s">
+        <v>302</v>
+      </c>
+      <c r="C187" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>381</v>
+      </c>
+      <c r="B188" t="s">
+        <v>382</v>
+      </c>
+      <c r="C188" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>352</v>
+      </c>
+      <c r="B189" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>353</v>
+      </c>
+      <c r="B190" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>354</v>
+      </c>
+      <c r="B191" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>392</v>
+      </c>
+      <c r="B195" t="s">
+        <v>393</v>
+      </c>
+      <c r="C195" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196" t="s">
+        <v>395</v>
+      </c>
+      <c r="C196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>396</v>
+      </c>
+      <c r="B197" t="s">
+        <v>279</v>
+      </c>
+      <c r="C197" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>314</v>
+      </c>
+      <c r="C198" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>356</v>
+      </c>
+      <c r="B199" t="s">
+        <v>398</v>
+      </c>
+      <c r="C199" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>357</v>
+      </c>
+      <c r="B200" t="s">
+        <v>358</v>
+      </c>
+      <c r="C200" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>359</v>
+      </c>
+      <c r="B201" t="s">
+        <v>253</v>
+      </c>
+      <c r="C201" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>360</v>
+      </c>
+      <c r="B202" t="s">
+        <v>361</v>
+      </c>
+      <c r="C202" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>362</v>
+      </c>
+      <c r="B203" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>364</v>
+      </c>
+      <c r="B204" t="s">
+        <v>365</v>
+      </c>
+      <c r="C204" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>366</v>
+      </c>
+      <c r="B205" t="s">
+        <v>399</v>
+      </c>
+      <c r="C205" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>367</v>
+      </c>
+      <c r="B206" t="s">
+        <v>368</v>
+      </c>
+      <c r="C206" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>369</v>
+      </c>
+      <c r="B207" t="s">
+        <v>400</v>
+      </c>
+      <c r="C207" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>370</v>
+      </c>
+      <c r="B208" t="s">
+        <v>371</v>
+      </c>
+      <c r="C208" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" t="s">
+        <v>304</v>
+      </c>
+      <c r="C209" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>402</v>
+      </c>
+      <c r="B210" t="s">
+        <v>228</v>
+      </c>
+      <c r="C210" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
